--- a/Base De Datos.xlsx
+++ b/Base De Datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumno\Desktop\Base De Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumno\Desktop\asdasdasdefefs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="283">
   <si>
     <t>Estudiantes</t>
   </si>
@@ -256,171 +256,6 @@
     <t>Cinthya</t>
   </si>
   <si>
-    <t>Francisco Ortiz Perales</t>
-  </si>
-  <si>
-    <t>Vidal Natanael Mariño Bernad</t>
-  </si>
-  <si>
-    <t>Gabino Riera Briones</t>
-  </si>
-  <si>
-    <t>Sebastian Muñoz Arenas</t>
-  </si>
-  <si>
-    <t>Bernardo Franch Arnau</t>
-  </si>
-  <si>
-    <t>Amor Navarrete Guitart</t>
-  </si>
-  <si>
-    <t>Seve Alcántara Correa</t>
-  </si>
-  <si>
-    <t>Florencio Villegas Miranda</t>
-  </si>
-  <si>
-    <t>Mateo Linares Borrás</t>
-  </si>
-  <si>
-    <t>Andrés Valdés Alba</t>
-  </si>
-  <si>
-    <t>Clímaco Miralles</t>
-  </si>
-  <si>
-    <t>Wilfredo Cerezo-Codina</t>
-  </si>
-  <si>
-    <t>Héctor Giménez</t>
-  </si>
-  <si>
-    <t>Pastor Noguera Blázquez</t>
-  </si>
-  <si>
-    <t>Chucho Herrera Almagro</t>
-  </si>
-  <si>
-    <t>Yago Carmelo Valcárcel Acero</t>
-  </si>
-  <si>
-    <t>Bernabé Beltran</t>
-  </si>
-  <si>
-    <t>Fortunato Duran Gálvez</t>
-  </si>
-  <si>
-    <t>Bernardo Marí Naranjo</t>
-  </si>
-  <si>
-    <t>Maximiano Valenzuela Ríos</t>
-  </si>
-  <si>
-    <t>Florencio Chaves-Casas</t>
-  </si>
-  <si>
-    <t>Amando Pellicer Cabezas</t>
-  </si>
-  <si>
-    <t>Telmo Torrecilla</t>
-  </si>
-  <si>
-    <t>Nicolás Vendrell Losada</t>
-  </si>
-  <si>
-    <t>Alonso Sobrino Mateos</t>
-  </si>
-  <si>
-    <t>Efraín Vallejo Salas</t>
-  </si>
-  <si>
-    <t>Américo Duran Nogués</t>
-  </si>
-  <si>
-    <t>Darío Ramos</t>
-  </si>
-  <si>
-    <t>Óscar Lobato Aguilera</t>
-  </si>
-  <si>
-    <t>Mauricio Coello Bueno</t>
-  </si>
-  <si>
-    <t>Adolfo Puente Azcona</t>
-  </si>
-  <si>
-    <t>Juan Francisco Montaña Noguera</t>
-  </si>
-  <si>
-    <t>Gustavo Aramburu-Ballesteros</t>
-  </si>
-  <si>
-    <t>Hernán de Rodríguez</t>
-  </si>
-  <si>
-    <t>Anastasio Acevedo Gisbert</t>
-  </si>
-  <si>
-    <t>Manu Corominas Hoyos</t>
-  </si>
-  <si>
-    <t>Dan Serrano</t>
-  </si>
-  <si>
-    <t>Eduardo de Arteaga</t>
-  </si>
-  <si>
-    <t>Jose Francisco Olivares García</t>
-  </si>
-  <si>
-    <t>Nicodemo Milla</t>
-  </si>
-  <si>
-    <t>Carmelo Tejero Barros</t>
-  </si>
-  <si>
-    <t>Óscar Enríquez Esteve</t>
-  </si>
-  <si>
-    <t>Jorge Cerdá Torralba</t>
-  </si>
-  <si>
-    <t>Jenaro Gilabert Juliá</t>
-  </si>
-  <si>
-    <t>Adrián Benito Aroca</t>
-  </si>
-  <si>
-    <t>José Rosa Guzmán</t>
-  </si>
-  <si>
-    <t>Román Morera Coronado</t>
-  </si>
-  <si>
-    <t>Teobaldo del Sevilla</t>
-  </si>
-  <si>
-    <t>Jacobo Manuel Llobet</t>
-  </si>
-  <si>
-    <t>Ibán Tenorio-Toro</t>
-  </si>
-  <si>
-    <t>Patricio Hernando Angulo Fuertes</t>
-  </si>
-  <si>
-    <t>Baldomero Téllez Madrigal</t>
-  </si>
-  <si>
-    <t>Hugo Marcos Duque</t>
-  </si>
-  <si>
-    <t>Faustino Angulo</t>
-  </si>
-  <si>
-    <t>Plácido Epifanio Bárcena Catalá</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nazario </t>
   </si>
   <si>
@@ -569,6 +404,477 @@
   </si>
   <si>
     <t xml:space="preserve">Jafet </t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>Mariño</t>
+  </si>
+  <si>
+    <t>Riera</t>
+  </si>
+  <si>
+    <t>Muñoz</t>
+  </si>
+  <si>
+    <t>Franch</t>
+  </si>
+  <si>
+    <t>Navarrete</t>
+  </si>
+  <si>
+    <t>Villegas</t>
+  </si>
+  <si>
+    <t>Cerezo</t>
+  </si>
+  <si>
+    <t>Héctor</t>
+  </si>
+  <si>
+    <t>Pelaes</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidal </t>
+  </si>
+  <si>
+    <t>Briones</t>
+  </si>
+  <si>
+    <t>Arenas</t>
+  </si>
+  <si>
+    <t>Correa</t>
+  </si>
+  <si>
+    <t>Alba</t>
+  </si>
+  <si>
+    <t>Gabino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian </t>
+  </si>
+  <si>
+    <t>Aru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernardo </t>
+  </si>
+  <si>
+    <t>Amon</t>
+  </si>
+  <si>
+    <t>Alcantara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seve </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florencio </t>
+  </si>
+  <si>
+    <t>Lineras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mateo </t>
+  </si>
+  <si>
+    <t>Valdes</t>
+  </si>
+  <si>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>Mirales</t>
+  </si>
+  <si>
+    <t>Alreo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clímaco </t>
+  </si>
+  <si>
+    <t>Noguera</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>Duran</t>
+  </si>
+  <si>
+    <t>Cordina</t>
+  </si>
+  <si>
+    <t>Wilfredo</t>
+  </si>
+  <si>
+    <t>Gimenez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastor </t>
+  </si>
+  <si>
+    <t>Chucho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yago </t>
+  </si>
+  <si>
+    <t>Carmelo</t>
+  </si>
+  <si>
+    <t>Vage</t>
+  </si>
+  <si>
+    <t>Beltran</t>
+  </si>
+  <si>
+    <t>Naranjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernabé </t>
+  </si>
+  <si>
+    <t>Chaves</t>
+  </si>
+  <si>
+    <t>Vendrell</t>
+  </si>
+  <si>
+    <t>Sobrino</t>
+  </si>
+  <si>
+    <t>Galvez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortunato </t>
+  </si>
+  <si>
+    <t>Casas</t>
+  </si>
+  <si>
+    <t>Losada</t>
+  </si>
+  <si>
+    <t>Mateos</t>
+  </si>
+  <si>
+    <t>Salas</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>Bernardo</t>
+  </si>
+  <si>
+    <t>Valenzula</t>
+  </si>
+  <si>
+    <t>Rios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximiano </t>
+  </si>
+  <si>
+    <t>Peliecer</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amando </t>
+  </si>
+  <si>
+    <t>Torecilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telmo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolás </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alonso </t>
+  </si>
+  <si>
+    <t>Vallejos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efraín </t>
+  </si>
+  <si>
+    <t>Nogues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Américo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darío </t>
+  </si>
+  <si>
+    <t>Lobato</t>
+  </si>
+  <si>
+    <t>Puente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Óscar </t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauricio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adolfo </t>
+  </si>
+  <si>
+    <t>Motaña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan </t>
+  </si>
+  <si>
+    <t>Arambu</t>
+  </si>
+  <si>
+    <t>Bastalleros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo </t>
+  </si>
+  <si>
+    <t>Hernán</t>
+  </si>
+  <si>
+    <t>Olivares</t>
+  </si>
+  <si>
+    <t>Nicodemo</t>
+  </si>
+  <si>
+    <t>Anastasio</t>
+  </si>
+  <si>
+    <t>Coromina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dan </t>
+  </si>
+  <si>
+    <t>Hoyos</t>
+  </si>
+  <si>
+    <t>Serrano</t>
+  </si>
+  <si>
+    <t>Milla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manu </t>
+  </si>
+  <si>
+    <t>Noga</t>
+  </si>
+  <si>
+    <t>Artega</t>
+  </si>
+  <si>
+    <t>Ortega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose </t>
+  </si>
+  <si>
+    <t>Tejero</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carmelo </t>
+  </si>
+  <si>
+    <t>Esteve</t>
+  </si>
+  <si>
+    <t>Aroca</t>
+  </si>
+  <si>
+    <t>Esterio</t>
+  </si>
+  <si>
+    <t>Cerda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge </t>
+  </si>
+  <si>
+    <t>Gilbert</t>
+  </si>
+  <si>
+    <t>Adelar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenaro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrián </t>
+  </si>
+  <si>
+    <t>Morera</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Tenorio</t>
+  </si>
+  <si>
+    <t>Angulo</t>
+  </si>
+  <si>
+    <t>Guzman</t>
+  </si>
+  <si>
+    <t>Cuider</t>
+  </si>
+  <si>
+    <t>Román</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Toro</t>
+  </si>
+  <si>
+    <t>Fuertes</t>
+  </si>
+  <si>
+    <t>Madrigal</t>
+  </si>
+  <si>
+    <t>Serano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teobaldo </t>
+  </si>
+  <si>
+    <t>Lobet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacobo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibán </t>
+  </si>
+  <si>
+    <t>Hernando</t>
+  </si>
+  <si>
+    <t>Patricio</t>
+  </si>
+  <si>
+    <t>Tellez</t>
+  </si>
+  <si>
+    <t>Baldomero</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Duque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angulo </t>
+  </si>
+  <si>
+    <t>Barcena</t>
+  </si>
+  <si>
+    <t>Catala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hugo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faustino </t>
+  </si>
+  <si>
+    <t>Plácido</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Acero</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>José Antonio</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>José Luis</t>
+  </si>
+  <si>
+    <t>Jesús</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>José Manuel</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>Miguel Ángel</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Ángel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco </t>
   </si>
 </sst>
 </file>
@@ -886,27 +1192,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N104"/>
+  <dimension ref="B2:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -929,25 +1237,28 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -957,8 +1268,33 @@
       <c r="D4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f>2022-G4</f>
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4">
+        <v>2000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>4.5</v>
+      </c>
+      <c r="K4">
+        <v>4.5</v>
+      </c>
+      <c r="L4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -968,8 +1304,33 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f>2022-G5</f>
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5">
+        <v>1998</v>
+      </c>
+      <c r="H5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5">
+        <v>4.5</v>
+      </c>
+      <c r="K5">
+        <v>4.5</v>
+      </c>
+      <c r="L5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -979,8 +1340,32 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6">
+        <v>1998</v>
+      </c>
+      <c r="H6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>4.7</v>
+      </c>
+      <c r="K6">
+        <v>4.7</v>
+      </c>
+      <c r="L6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -990,8 +1375,32 @@
       <c r="D7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7">
+        <v>2000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -1001,8 +1410,32 @@
       <c r="D8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8">
+        <v>1998</v>
+      </c>
+      <c r="H8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8">
+        <v>4.8</v>
+      </c>
+      <c r="K8">
+        <v>4.8</v>
+      </c>
+      <c r="L8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>29</v>
       </c>
@@ -1012,8 +1445,32 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9">
+        <v>1998</v>
+      </c>
+      <c r="H9" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" t="s">
+        <v>267</v>
+      </c>
+      <c r="J9">
+        <v>4.8</v>
+      </c>
+      <c r="K9">
+        <v>4.8</v>
+      </c>
+      <c r="L9">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -1023,8 +1480,32 @@
       <c r="D10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10">
+        <v>2000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>271</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>4.8</v>
+      </c>
+      <c r="K10">
+        <v>4.8</v>
+      </c>
+      <c r="L10">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -1034,8 +1515,32 @@
       <c r="D11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11">
+        <v>1998</v>
+      </c>
+      <c r="H11" t="s">
+        <v>272</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <v>4.8</v>
+      </c>
+      <c r="K11">
+        <v>4.8</v>
+      </c>
+      <c r="L11">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>42</v>
       </c>
@@ -1045,8 +1550,32 @@
       <c r="D12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12">
+        <v>2000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>273</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L12">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>45</v>
       </c>
@@ -1056,8 +1585,32 @@
       <c r="D13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13">
+        <v>1998</v>
+      </c>
+      <c r="H13" t="s">
+        <v>274</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L13">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>45</v>
       </c>
@@ -1067,8 +1620,32 @@
       <c r="D14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14">
+        <v>2000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>282</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14">
+        <v>4.5</v>
+      </c>
+      <c r="K14">
+        <v>4.5</v>
+      </c>
+      <c r="L14">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>49</v>
       </c>
@@ -1078,8 +1655,32 @@
       <c r="D15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15">
+        <v>2000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>4.2</v>
+      </c>
+      <c r="K15">
+        <v>4.2</v>
+      </c>
+      <c r="L15">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>52</v>
       </c>
@@ -1089,8 +1690,32 @@
       <c r="D16" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16">
+        <v>2000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>275</v>
+      </c>
+      <c r="I16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16">
+        <v>4.2</v>
+      </c>
+      <c r="K16">
+        <v>4.2</v>
+      </c>
+      <c r="L16">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>55</v>
       </c>
@@ -1100,8 +1725,32 @@
       <c r="D17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17">
+        <v>2000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17">
+        <v>4.3</v>
+      </c>
+      <c r="K17">
+        <v>4.3</v>
+      </c>
+      <c r="L17">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>55</v>
       </c>
@@ -1111,8 +1760,32 @@
       <c r="D18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18">
+        <v>1998</v>
+      </c>
+      <c r="H18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18">
+        <v>4.3</v>
+      </c>
+      <c r="K18">
+        <v>4.3</v>
+      </c>
+      <c r="L18">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>55</v>
       </c>
@@ -1122,8 +1795,32 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19">
+        <v>1998</v>
+      </c>
+      <c r="H19" t="s">
+        <v>277</v>
+      </c>
+      <c r="I19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19">
+        <v>4.3</v>
+      </c>
+      <c r="K19">
+        <v>4.3</v>
+      </c>
+      <c r="L19">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>55</v>
       </c>
@@ -1133,8 +1830,32 @@
       <c r="D20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20">
+        <v>2000</v>
+      </c>
+      <c r="H20" t="s">
+        <v>278</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20">
+        <v>4.5</v>
+      </c>
+      <c r="K20">
+        <v>4.5</v>
+      </c>
+      <c r="L20">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>55</v>
       </c>
@@ -1144,8 +1865,32 @@
       <c r="D21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21">
+        <v>1998</v>
+      </c>
+      <c r="H21" t="s">
+        <v>279</v>
+      </c>
+      <c r="I21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21">
+        <v>4.5</v>
+      </c>
+      <c r="K21">
+        <v>4.5</v>
+      </c>
+      <c r="L21">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>64</v>
       </c>
@@ -1155,8 +1900,32 @@
       <c r="D22" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22">
+        <v>2000</v>
+      </c>
+      <c r="H22" t="s">
+        <v>280</v>
+      </c>
+      <c r="I22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22">
+        <v>4.7</v>
+      </c>
+      <c r="K22">
+        <v>4.7</v>
+      </c>
+      <c r="L22">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>67</v>
       </c>
@@ -1166,8 +1935,32 @@
       <c r="D23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23">
+        <v>1998</v>
+      </c>
+      <c r="H23" t="s">
+        <v>281</v>
+      </c>
+      <c r="I23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>64</v>
       </c>
@@ -1177,8 +1970,32 @@
       <c r="D24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24">
+        <v>2000</v>
+      </c>
+      <c r="H24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24">
+        <v>4.8</v>
+      </c>
+      <c r="K24">
+        <v>4.8</v>
+      </c>
+      <c r="L24">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>69</v>
       </c>
@@ -1188,8 +2005,32 @@
       <c r="D25" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25">
+        <v>2000</v>
+      </c>
+      <c r="H25" t="s">
+        <v>268</v>
+      </c>
+      <c r="I25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25">
+        <v>4.8</v>
+      </c>
+      <c r="K25">
+        <v>4.8</v>
+      </c>
+      <c r="L25">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>72</v>
       </c>
@@ -1199,8 +2040,32 @@
       <c r="D26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26">
+        <v>2000</v>
+      </c>
+      <c r="H26" t="s">
+        <v>239</v>
+      </c>
+      <c r="I26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26">
+        <v>4.8</v>
+      </c>
+      <c r="K26">
+        <v>4.8</v>
+      </c>
+      <c r="L26">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>75</v>
       </c>
@@ -1210,43 +2075,139 @@
       <c r="D27" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27">
+        <v>2000</v>
+      </c>
+      <c r="H27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27">
+        <v>4.8</v>
+      </c>
+      <c r="K27">
+        <v>4.8</v>
+      </c>
+      <c r="L27">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28">
+        <v>2000</v>
+      </c>
+      <c r="H28" t="s">
+        <v>269</v>
+      </c>
+      <c r="I28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K28">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L28">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E29">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29">
+        <v>2000</v>
+      </c>
+      <c r="H29" t="s">
+        <v>270</v>
+      </c>
+      <c r="I29" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L29">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E30">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30">
+        <v>2000</v>
+      </c>
+      <c r="H30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30">
+        <v>4.5</v>
+      </c>
+      <c r="K30">
+        <v>4.5</v>
+      </c>
+      <c r="L30">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
@@ -1254,478 +2215,2584 @@
       <c r="D31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31">
+        <v>2000</v>
+      </c>
+      <c r="H31" t="s">
+        <v>272</v>
+      </c>
+      <c r="I31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31">
+        <v>4.2</v>
+      </c>
+      <c r="K31">
+        <v>4.2</v>
+      </c>
+      <c r="L31">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="E32">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32">
+        <v>2000</v>
+      </c>
+      <c r="H32" t="s">
+        <v>273</v>
+      </c>
+      <c r="I32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32">
+        <v>4.2</v>
+      </c>
+      <c r="K32">
+        <v>4.2</v>
+      </c>
+      <c r="L32">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
         <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="E33">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33">
+        <v>2000</v>
+      </c>
+      <c r="H33" t="s">
+        <v>274</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33">
+        <v>4.3</v>
+      </c>
+      <c r="K33">
+        <v>4.3</v>
+      </c>
+      <c r="L33">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34">
+        <v>2000</v>
+      </c>
+      <c r="H34" t="s">
+        <v>282</v>
+      </c>
+      <c r="I34" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34">
+        <v>4.3</v>
+      </c>
+      <c r="K34">
+        <v>4.3</v>
+      </c>
+      <c r="L34">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E35">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35">
+        <v>2000</v>
+      </c>
+      <c r="H35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35">
+        <v>4.3</v>
+      </c>
+      <c r="K35">
+        <v>4.3</v>
+      </c>
+      <c r="L35">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36">
+        <v>1998</v>
+      </c>
+      <c r="H36" t="s">
+        <v>275</v>
+      </c>
+      <c r="I36" t="s">
+        <v>88</v>
+      </c>
+      <c r="J36">
+        <v>4.5</v>
+      </c>
+      <c r="K36">
+        <v>4.5</v>
+      </c>
+      <c r="L36">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37">
+        <v>1998</v>
+      </c>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37">
+        <v>4.5</v>
+      </c>
+      <c r="K37">
+        <v>4.5</v>
+      </c>
+      <c r="L37">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38">
+        <v>1998</v>
+      </c>
+      <c r="H38" t="s">
+        <v>276</v>
+      </c>
+      <c r="I38" t="s">
+        <v>90</v>
+      </c>
+      <c r="J38">
+        <v>4.7</v>
+      </c>
+      <c r="K38">
+        <v>4.7</v>
+      </c>
+      <c r="L38">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39">
+        <v>1998</v>
+      </c>
+      <c r="H39" t="s">
+        <v>277</v>
+      </c>
+      <c r="I39" t="s">
+        <v>103</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="E40">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40">
+        <v>1998</v>
+      </c>
+      <c r="H40" t="s">
+        <v>278</v>
+      </c>
+      <c r="I40" t="s">
+        <v>91</v>
+      </c>
+      <c r="J40">
+        <v>4.8</v>
+      </c>
+      <c r="K40">
+        <v>4.8</v>
+      </c>
+      <c r="L40">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="E41">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41">
+        <v>1998</v>
+      </c>
+      <c r="H41" t="s">
+        <v>279</v>
+      </c>
+      <c r="I41" t="s">
+        <v>102</v>
+      </c>
+      <c r="J41">
+        <v>4.8</v>
+      </c>
+      <c r="K41">
+        <v>4.8</v>
+      </c>
+      <c r="L41">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="E42">
+        <v>24</v>
+      </c>
+      <c r="F42" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42">
+        <v>1998</v>
+      </c>
+      <c r="H42" t="s">
+        <v>280</v>
+      </c>
+      <c r="I42" t="s">
+        <v>93</v>
+      </c>
+      <c r="J42">
+        <v>4.8</v>
+      </c>
+      <c r="K42">
+        <v>4.8</v>
+      </c>
+      <c r="L42">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>24</v>
+      </c>
+      <c r="F43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43">
+        <v>1998</v>
+      </c>
+      <c r="H43" t="s">
+        <v>281</v>
+      </c>
+      <c r="I43" t="s">
+        <v>94</v>
+      </c>
+      <c r="J43">
+        <v>4.8</v>
+      </c>
+      <c r="K43">
+        <v>4.8</v>
+      </c>
+      <c r="L43">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44">
+        <v>1998</v>
+      </c>
+      <c r="H44" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K44">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L44">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45">
+        <v>24</v>
+      </c>
+      <c r="F45" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45">
+        <v>1998</v>
+      </c>
+      <c r="H45" t="s">
+        <v>268</v>
+      </c>
+      <c r="I45" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K45">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L45">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46">
+        <v>24</v>
+      </c>
+      <c r="F46" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46">
+        <v>1998</v>
+      </c>
+      <c r="H46" t="s">
+        <v>239</v>
+      </c>
+      <c r="I46" t="s">
+        <v>111</v>
+      </c>
+      <c r="J46">
+        <v>4.5</v>
+      </c>
+      <c r="K46">
+        <v>4.5</v>
+      </c>
+      <c r="L46">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47">
+        <v>1998</v>
+      </c>
+      <c r="H47" t="s">
+        <v>138</v>
+      </c>
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47">
+        <v>4.2</v>
+      </c>
+      <c r="K47">
+        <v>4.2</v>
+      </c>
+      <c r="L47">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48">
+        <v>24</v>
+      </c>
+      <c r="F48" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48">
+        <v>1998</v>
+      </c>
+      <c r="H48" t="s">
+        <v>269</v>
+      </c>
+      <c r="I48" t="s">
+        <v>123</v>
+      </c>
+      <c r="J48">
+        <v>4.2</v>
+      </c>
+      <c r="K48">
+        <v>4.2</v>
+      </c>
+      <c r="L48">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49">
+        <v>24</v>
+      </c>
+      <c r="F49" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49">
+        <v>1998</v>
+      </c>
+      <c r="H49" t="s">
+        <v>270</v>
+      </c>
+      <c r="I49" t="s">
+        <v>114</v>
+      </c>
+      <c r="J49">
+        <v>4.3</v>
+      </c>
+      <c r="K49">
+        <v>4.3</v>
+      </c>
+      <c r="L49">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50">
+        <v>1998</v>
+      </c>
+      <c r="H50" t="s">
+        <v>271</v>
+      </c>
+      <c r="I50" t="s">
+        <v>128</v>
+      </c>
+      <c r="J50">
+        <v>4.3</v>
+      </c>
+      <c r="K50">
+        <v>4.3</v>
+      </c>
+      <c r="L50">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51">
+        <v>24</v>
+      </c>
+      <c r="F51" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51">
+        <v>1998</v>
+      </c>
+      <c r="H51" t="s">
+        <v>272</v>
+      </c>
+      <c r="I51" t="s">
+        <v>129</v>
+      </c>
+      <c r="J51">
+        <v>4.3</v>
+      </c>
+      <c r="K51">
+        <v>4.3</v>
+      </c>
+      <c r="L51">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52">
+        <v>1998</v>
+      </c>
+      <c r="H52" t="s">
+        <v>273</v>
+      </c>
+      <c r="I52" t="s">
+        <v>130</v>
+      </c>
+      <c r="J52">
+        <v>4.5</v>
+      </c>
+      <c r="K52">
+        <v>4.5</v>
+      </c>
+      <c r="L52">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53">
+        <v>24</v>
+      </c>
+      <c r="F53" t="s">
+        <v>127</v>
+      </c>
+      <c r="G53">
+        <v>1998</v>
+      </c>
+      <c r="H53" t="s">
+        <v>274</v>
+      </c>
+      <c r="I53" t="s">
+        <v>131</v>
+      </c>
+      <c r="J53">
+        <v>4.5</v>
+      </c>
+      <c r="K53">
+        <v>4.5</v>
+      </c>
+      <c r="L53">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54">
+        <v>24</v>
+      </c>
+      <c r="F54" t="s">
+        <v>127</v>
+      </c>
+      <c r="G54">
+        <v>1998</v>
+      </c>
+      <c r="H54" t="s">
+        <v>282</v>
+      </c>
+      <c r="I54" t="s">
+        <v>132</v>
+      </c>
+      <c r="J54">
+        <v>4.7</v>
+      </c>
+      <c r="K54">
+        <v>4.7</v>
+      </c>
+      <c r="L54">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55">
+        <v>24</v>
+      </c>
+      <c r="F55" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55">
+        <v>1998</v>
+      </c>
+      <c r="H55" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" t="s">
+        <v>133</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56">
+        <v>24</v>
+      </c>
+      <c r="F56" t="s">
+        <v>127</v>
+      </c>
+      <c r="G56">
+        <v>1998</v>
+      </c>
+      <c r="H56" t="s">
+        <v>275</v>
+      </c>
+      <c r="I56" t="s">
+        <v>150</v>
+      </c>
+      <c r="J56">
+        <v>4.8</v>
+      </c>
+      <c r="K56">
+        <v>4.8</v>
+      </c>
+      <c r="L56">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s">
+        <v>127</v>
+      </c>
+      <c r="G57">
+        <v>1998</v>
+      </c>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s">
+        <v>134</v>
+      </c>
+      <c r="J57">
+        <v>4.8</v>
+      </c>
+      <c r="K57">
+        <v>4.8</v>
+      </c>
+      <c r="L57">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58">
+        <v>24</v>
+      </c>
+      <c r="F58" t="s">
+        <v>127</v>
+      </c>
+      <c r="G58">
+        <v>1998</v>
+      </c>
+      <c r="H58" t="s">
+        <v>276</v>
+      </c>
+      <c r="I58" t="s">
+        <v>153</v>
+      </c>
+      <c r="J58">
+        <v>4.8</v>
+      </c>
+      <c r="K58">
+        <v>4.8</v>
+      </c>
+      <c r="L58">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s">
+        <v>127</v>
+      </c>
+      <c r="G59">
+        <v>1998</v>
+      </c>
+      <c r="H59" t="s">
+        <v>277</v>
+      </c>
+      <c r="I59" t="s">
+        <v>155</v>
+      </c>
+      <c r="J59">
+        <v>4.8</v>
+      </c>
+      <c r="K59">
+        <v>4.8</v>
+      </c>
+      <c r="L59">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60">
+        <v>24</v>
+      </c>
+      <c r="F60" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60">
+        <v>1998</v>
+      </c>
+      <c r="H60" t="s">
+        <v>278</v>
+      </c>
+      <c r="I60" t="s">
+        <v>157</v>
+      </c>
+      <c r="J60">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K60">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L60">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61">
+        <v>24</v>
+      </c>
+      <c r="F61" t="s">
+        <v>127</v>
+      </c>
+      <c r="G61">
+        <v>1998</v>
+      </c>
+      <c r="H61" t="s">
+        <v>279</v>
+      </c>
+      <c r="I61" t="s">
+        <v>135</v>
+      </c>
+      <c r="J61">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K61">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L61">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62">
+        <v>24</v>
+      </c>
+      <c r="F62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G62">
+        <v>1998</v>
+      </c>
+      <c r="H62" t="s">
+        <v>280</v>
+      </c>
+      <c r="I62" t="s">
+        <v>165</v>
+      </c>
+      <c r="J62">
+        <v>4.5</v>
+      </c>
+      <c r="K62">
+        <v>4.5</v>
+      </c>
+      <c r="L62">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63">
+        <v>24</v>
+      </c>
+      <c r="F63" t="s">
+        <v>127</v>
+      </c>
+      <c r="G63">
+        <v>1998</v>
+      </c>
+      <c r="H63" t="s">
+        <v>281</v>
+      </c>
+      <c r="I63" t="s">
+        <v>160</v>
+      </c>
+      <c r="J63">
+        <v>4.2</v>
+      </c>
+      <c r="K63">
+        <v>4.2</v>
+      </c>
+      <c r="L63">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64">
+        <v>24</v>
+      </c>
+      <c r="F64" t="s">
+        <v>127</v>
+      </c>
+      <c r="G64">
+        <v>1998</v>
+      </c>
+      <c r="H64" t="s">
+        <v>116</v>
+      </c>
+      <c r="I64" t="s">
+        <v>161</v>
+      </c>
+      <c r="J64">
+        <v>4.2</v>
+      </c>
+      <c r="K64">
+        <v>4.2</v>
+      </c>
+      <c r="L64">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65">
+        <v>24</v>
+      </c>
+      <c r="F65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G65">
+        <v>1998</v>
+      </c>
+      <c r="H65" t="s">
+        <v>268</v>
+      </c>
+      <c r="I65" t="s">
+        <v>169</v>
+      </c>
+      <c r="J65">
+        <v>4.3</v>
+      </c>
+      <c r="K65">
+        <v>4.3</v>
+      </c>
+      <c r="L65">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66">
+        <v>24</v>
+      </c>
+      <c r="F66" t="s">
+        <v>127</v>
+      </c>
+      <c r="G66">
+        <v>1998</v>
+      </c>
+      <c r="H66" t="s">
+        <v>239</v>
+      </c>
+      <c r="I66" t="s">
+        <v>171</v>
+      </c>
+      <c r="J66">
+        <v>4.3</v>
+      </c>
+      <c r="K66">
+        <v>4.3</v>
+      </c>
+      <c r="L66">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67">
+        <v>24</v>
+      </c>
+      <c r="F67" t="s">
+        <v>127</v>
+      </c>
+      <c r="G67">
+        <v>1998</v>
+      </c>
+      <c r="H67" t="s">
+        <v>138</v>
+      </c>
+      <c r="I67" t="s">
+        <v>162</v>
+      </c>
+      <c r="J67">
+        <v>4.3</v>
+      </c>
+      <c r="K67">
+        <v>4.3</v>
+      </c>
+      <c r="L67">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" t="s">
+        <v>172</v>
+      </c>
+      <c r="E68">
+        <v>24</v>
+      </c>
+      <c r="F68" t="s">
+        <v>127</v>
+      </c>
+      <c r="G68">
+        <v>1998</v>
+      </c>
+      <c r="H68" t="s">
+        <v>269</v>
+      </c>
+      <c r="I68" t="s">
+        <v>129</v>
+      </c>
+      <c r="J68">
+        <v>4.5</v>
+      </c>
+      <c r="K68">
+        <v>4.5</v>
+      </c>
+      <c r="L68">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" t="s">
+        <v>186</v>
+      </c>
+      <c r="E69">
+        <v>22</v>
+      </c>
+      <c r="F69" t="s">
+        <v>127</v>
+      </c>
+      <c r="G69">
+        <v>2000</v>
+      </c>
+      <c r="H69" t="s">
+        <v>270</v>
+      </c>
+      <c r="I69" t="s">
+        <v>185</v>
+      </c>
+      <c r="J69">
+        <v>4.5</v>
+      </c>
+      <c r="K69">
+        <v>4.5</v>
+      </c>
+      <c r="L69">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" t="s">
         <v>174</v>
       </c>
-      <c r="C44" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="D70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E70">
+        <v>22</v>
+      </c>
+      <c r="F70" t="s">
+        <v>127</v>
+      </c>
+      <c r="G70">
+        <v>2000</v>
+      </c>
+      <c r="H70" t="s">
+        <v>271</v>
+      </c>
+      <c r="I70" t="s">
+        <v>174</v>
+      </c>
+      <c r="J70">
+        <v>4.7</v>
+      </c>
+      <c r="K70">
+        <v>4.7</v>
+      </c>
+      <c r="L70">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" t="s">
+        <v>189</v>
+      </c>
+      <c r="E71">
+        <v>22</v>
+      </c>
+      <c r="F71" t="s">
+        <v>127</v>
+      </c>
+      <c r="G71">
+        <v>2000</v>
+      </c>
+      <c r="H71" t="s">
+        <v>272</v>
+      </c>
+      <c r="I71" t="s">
+        <v>188</v>
+      </c>
+      <c r="J71">
+        <v>4</v>
+      </c>
+      <c r="K71">
+        <v>4</v>
+      </c>
+      <c r="L71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72">
+        <v>22</v>
+      </c>
+      <c r="F72" t="s">
+        <v>127</v>
+      </c>
+      <c r="G72">
+        <v>2000</v>
+      </c>
+      <c r="H72" t="s">
+        <v>273</v>
+      </c>
+      <c r="I72" t="s">
+        <v>191</v>
+      </c>
+      <c r="J72">
+        <v>4.8</v>
+      </c>
+      <c r="K72">
+        <v>4.8</v>
+      </c>
+      <c r="L72">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" t="s">
+        <v>180</v>
+      </c>
+      <c r="D73" t="s">
         <v>175</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E73">
+        <v>22</v>
+      </c>
+      <c r="F73" t="s">
+        <v>127</v>
+      </c>
+      <c r="G73">
+        <v>2000</v>
+      </c>
+      <c r="H73" t="s">
+        <v>274</v>
+      </c>
+      <c r="I73" t="s">
+        <v>180</v>
+      </c>
+      <c r="J73">
+        <v>4.8</v>
+      </c>
+      <c r="K73">
+        <v>4.8</v>
+      </c>
+      <c r="L73">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" t="s">
+        <v>176</v>
+      </c>
+      <c r="D74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E74">
+        <v>22</v>
+      </c>
+      <c r="F74" t="s">
+        <v>127</v>
+      </c>
+      <c r="G74">
+        <v>2000</v>
+      </c>
+      <c r="H74" t="s">
+        <v>282</v>
+      </c>
+      <c r="I74" t="s">
+        <v>176</v>
+      </c>
+      <c r="J74">
+        <v>4.8</v>
+      </c>
+      <c r="K74">
+        <v>4.8</v>
+      </c>
+      <c r="L74">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75">
+        <v>22</v>
+      </c>
+      <c r="F75" t="s">
+        <v>127</v>
+      </c>
+      <c r="G75">
+        <v>2000</v>
+      </c>
+      <c r="H75" t="s">
+        <v>64</v>
+      </c>
+      <c r="I75" t="s">
+        <v>195</v>
+      </c>
+      <c r="J75">
+        <v>4.8</v>
+      </c>
+      <c r="K75">
+        <v>4.8</v>
+      </c>
+      <c r="L75">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76" t="s">
+        <v>197</v>
+      </c>
+      <c r="E76">
+        <v>22</v>
+      </c>
+      <c r="F76" t="s">
+        <v>127</v>
+      </c>
+      <c r="G76">
+        <v>2000</v>
+      </c>
+      <c r="H76" t="s">
+        <v>275</v>
+      </c>
+      <c r="I76" t="s">
+        <v>162</v>
+      </c>
+      <c r="J76">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K76">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L76">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77">
+        <v>22</v>
+      </c>
+      <c r="F77" t="s">
+        <v>127</v>
+      </c>
+      <c r="G77">
+        <v>2000</v>
+      </c>
+      <c r="H77" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" t="s">
+        <v>183</v>
+      </c>
+      <c r="J77">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K77">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L77">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78" t="s">
+        <v>200</v>
+      </c>
+      <c r="D78" t="s">
+        <v>88</v>
+      </c>
+      <c r="E78">
+        <v>22</v>
+      </c>
+      <c r="F78" t="s">
+        <v>127</v>
+      </c>
+      <c r="G78">
+        <v>2000</v>
+      </c>
+      <c r="H78" t="s">
+        <v>276</v>
+      </c>
+      <c r="I78" t="s">
+        <v>200</v>
+      </c>
+      <c r="J78">
+        <v>4.5</v>
+      </c>
+      <c r="K78">
+        <v>4.5</v>
+      </c>
+      <c r="L78">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>204</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" t="s">
+        <v>203</v>
+      </c>
+      <c r="E79">
+        <v>22</v>
+      </c>
+      <c r="F79" t="s">
+        <v>127</v>
+      </c>
+      <c r="G79">
+        <v>2000</v>
+      </c>
+      <c r="H79" t="s">
+        <v>277</v>
+      </c>
+      <c r="I79" t="s">
+        <v>90</v>
+      </c>
+      <c r="J79">
+        <v>4.2</v>
+      </c>
+      <c r="K79">
+        <v>4.2</v>
+      </c>
+      <c r="L79">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" t="s">
+        <v>201</v>
+      </c>
+      <c r="D80" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80">
+        <v>22</v>
+      </c>
+      <c r="F80" t="s">
+        <v>127</v>
+      </c>
+      <c r="G80">
+        <v>2000</v>
+      </c>
+      <c r="H80" t="s">
+        <v>278</v>
+      </c>
+      <c r="I80" t="s">
+        <v>201</v>
+      </c>
+      <c r="J80">
+        <v>4.2</v>
+      </c>
+      <c r="K80">
+        <v>4.2</v>
+      </c>
+      <c r="L80">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" t="s">
+        <v>206</v>
+      </c>
+      <c r="D81" t="s">
         <v>160</v>
       </c>
-      <c r="D45" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>176</v>
-      </c>
-      <c r="C46" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>179</v>
-      </c>
-      <c r="C48" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>180</v>
-      </c>
-      <c r="C49" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="E81">
+        <v>22</v>
+      </c>
+      <c r="F81" t="s">
+        <v>127</v>
+      </c>
+      <c r="G81">
+        <v>2000</v>
+      </c>
+      <c r="H81" t="s">
+        <v>279</v>
+      </c>
+      <c r="I81" t="s">
+        <v>206</v>
+      </c>
+      <c r="J81">
+        <v>4.3</v>
+      </c>
+      <c r="K81">
+        <v>4.3</v>
+      </c>
+      <c r="L81">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" t="s">
+        <v>209</v>
+      </c>
+      <c r="E82">
+        <v>22</v>
+      </c>
+      <c r="F82" t="s">
+        <v>127</v>
+      </c>
+      <c r="G82">
+        <v>2000</v>
+      </c>
+      <c r="H82" t="s">
+        <v>280</v>
+      </c>
+      <c r="I82" t="s">
+        <v>208</v>
+      </c>
+      <c r="J82">
+        <v>4.3</v>
+      </c>
+      <c r="K82">
+        <v>4.3</v>
+      </c>
+      <c r="L82">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" t="s">
+        <v>160</v>
+      </c>
+      <c r="E83">
+        <v>22</v>
+      </c>
+      <c r="F83" t="s">
+        <v>127</v>
+      </c>
+      <c r="G83">
+        <v>2000</v>
+      </c>
+      <c r="H83" t="s">
+        <v>281</v>
+      </c>
+      <c r="I83" t="s">
+        <v>58</v>
+      </c>
+      <c r="J83">
+        <v>4.3</v>
+      </c>
+      <c r="K83">
+        <v>4.3</v>
+      </c>
+      <c r="L83">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84">
+        <v>22</v>
+      </c>
+      <c r="F84" t="s">
+        <v>127</v>
+      </c>
+      <c r="G84">
+        <v>2000</v>
+      </c>
+      <c r="H84" t="s">
+        <v>116</v>
+      </c>
+      <c r="I84" t="s">
+        <v>26</v>
+      </c>
+      <c r="J84">
+        <v>4.5</v>
+      </c>
+      <c r="K84">
+        <v>4.5</v>
+      </c>
+      <c r="L84">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" t="s">
+        <v>215</v>
+      </c>
+      <c r="D85" t="s">
+        <v>217</v>
+      </c>
+      <c r="E85">
+        <v>22</v>
+      </c>
+      <c r="F85" t="s">
+        <v>127</v>
+      </c>
+      <c r="G85">
+        <v>2000</v>
+      </c>
+      <c r="H85" t="s">
+        <v>268</v>
+      </c>
+      <c r="I85" t="s">
+        <v>215</v>
+      </c>
+      <c r="J85">
+        <v>4.5</v>
+      </c>
+      <c r="K85">
+        <v>4.5</v>
+      </c>
+      <c r="L85">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" t="s">
+        <v>218</v>
+      </c>
+      <c r="D86" t="s">
+        <v>221</v>
+      </c>
+      <c r="E86">
+        <v>22</v>
+      </c>
+      <c r="F86" t="s">
+        <v>127</v>
+      </c>
+      <c r="G86">
+        <v>2000</v>
+      </c>
+      <c r="H86" t="s">
+        <v>239</v>
+      </c>
+      <c r="I86" t="s">
+        <v>218</v>
+      </c>
+      <c r="J86">
+        <v>4.7</v>
+      </c>
+      <c r="K86">
+        <v>4.7</v>
+      </c>
+      <c r="L86">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>224</v>
+      </c>
+      <c r="C87" t="s">
+        <v>222</v>
+      </c>
+      <c r="D87" t="s">
+        <v>223</v>
+      </c>
+      <c r="E87">
+        <v>22</v>
+      </c>
+      <c r="F87" t="s">
+        <v>127</v>
+      </c>
+      <c r="G87">
+        <v>2000</v>
+      </c>
+      <c r="H87" t="s">
+        <v>138</v>
+      </c>
+      <c r="I87" t="s">
+        <v>222</v>
+      </c>
+      <c r="J87">
+        <v>4</v>
+      </c>
+      <c r="K87">
+        <v>4</v>
+      </c>
+      <c r="L87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>225</v>
+      </c>
+      <c r="C88" t="s">
+        <v>212</v>
+      </c>
+      <c r="D88" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88">
+        <v>22</v>
+      </c>
+      <c r="F88" t="s">
+        <v>127</v>
+      </c>
+      <c r="G88">
+        <v>2000</v>
+      </c>
+      <c r="H88" t="s">
+        <v>269</v>
+      </c>
+      <c r="I88" t="s">
+        <v>212</v>
+      </c>
+      <c r="J88">
+        <v>4.8</v>
+      </c>
+      <c r="K88">
+        <v>4.8</v>
+      </c>
+      <c r="L88">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>213</v>
+      </c>
+      <c r="C89" t="s">
+        <v>219</v>
+      </c>
+      <c r="D89" t="s">
+        <v>157</v>
+      </c>
+      <c r="E89">
+        <v>22</v>
+      </c>
+      <c r="F89" t="s">
+        <v>127</v>
+      </c>
+      <c r="G89">
+        <v>2000</v>
+      </c>
+      <c r="H89" t="s">
+        <v>270</v>
+      </c>
+      <c r="I89" t="s">
+        <v>219</v>
+      </c>
+      <c r="J89">
+        <v>4.8</v>
+      </c>
+      <c r="K89">
+        <v>4.8</v>
+      </c>
+      <c r="L89">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>228</v>
+      </c>
+      <c r="C90" t="s">
+        <v>226</v>
+      </c>
+      <c r="D90" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90">
+        <v>22</v>
+      </c>
+      <c r="F90" t="s">
+        <v>127</v>
+      </c>
+      <c r="G90">
+        <v>2000</v>
+      </c>
+      <c r="H90" t="s">
+        <v>271</v>
+      </c>
+      <c r="I90" t="s">
+        <v>226</v>
+      </c>
+      <c r="J90">
+        <v>4.8</v>
+      </c>
+      <c r="K90">
+        <v>4.8</v>
+      </c>
+      <c r="L90">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D91" t="s">
+        <v>231</v>
+      </c>
+      <c r="E91">
+        <v>22</v>
+      </c>
+      <c r="F91" t="s">
+        <v>127</v>
+      </c>
+      <c r="G91">
+        <v>2000</v>
+      </c>
+      <c r="H91" t="s">
+        <v>272</v>
+      </c>
+      <c r="I91" t="s">
+        <v>229</v>
+      </c>
+      <c r="J91">
+        <v>4.8</v>
+      </c>
+      <c r="K91">
+        <v>4.8</v>
+      </c>
+      <c r="L91">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>233</v>
+      </c>
+      <c r="C92" t="s">
+        <v>232</v>
+      </c>
+      <c r="D92" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="E92">
+        <v>22</v>
+      </c>
+      <c r="F92" t="s">
+        <v>127</v>
+      </c>
+      <c r="G92">
+        <v>2000</v>
+      </c>
+      <c r="H92" t="s">
+        <v>273</v>
+      </c>
+      <c r="I92" t="s">
+        <v>232</v>
+      </c>
+      <c r="J92">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K92">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L92">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" t="s">
+        <v>234</v>
+      </c>
+      <c r="D93" t="s">
+        <v>235</v>
+      </c>
+      <c r="E93">
+        <v>24</v>
+      </c>
+      <c r="F93" t="s">
+        <v>127</v>
+      </c>
+      <c r="G93">
+        <v>1998</v>
+      </c>
+      <c r="H93" t="s">
+        <v>274</v>
+      </c>
+      <c r="I93" t="s">
+        <v>234</v>
+      </c>
+      <c r="J93">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K93">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L93">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>237</v>
+      </c>
+      <c r="C94" t="s">
+        <v>230</v>
+      </c>
+      <c r="D94" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="E94">
+        <v>24</v>
+      </c>
+      <c r="F94" t="s">
+        <v>127</v>
+      </c>
+      <c r="G94">
+        <v>1998</v>
+      </c>
+      <c r="H94" t="s">
+        <v>282</v>
+      </c>
+      <c r="I94" t="s">
+        <v>230</v>
+      </c>
+      <c r="J94">
+        <v>4.5</v>
+      </c>
+      <c r="K94">
+        <v>4.5</v>
+      </c>
+      <c r="L94">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>225</v>
+      </c>
+      <c r="C95" t="s">
+        <v>227</v>
+      </c>
+      <c r="D95" t="s">
+        <v>242</v>
+      </c>
+      <c r="E95">
+        <v>24</v>
+      </c>
+      <c r="F95" t="s">
+        <v>127</v>
+      </c>
+      <c r="G95">
+        <v>1998</v>
+      </c>
+      <c r="H95" t="s">
+        <v>64</v>
+      </c>
+      <c r="I95" t="s">
+        <v>227</v>
+      </c>
+      <c r="J95">
+        <v>4.2</v>
+      </c>
+      <c r="K95">
+        <v>4.2</v>
+      </c>
+      <c r="L95">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>244</v>
+      </c>
+      <c r="C96" t="s">
+        <v>238</v>
+      </c>
+      <c r="D96" t="s">
+        <v>243</v>
+      </c>
+      <c r="E96">
+        <v>24</v>
+      </c>
+      <c r="F96" t="s">
+        <v>127</v>
+      </c>
+      <c r="G96">
+        <v>1998</v>
+      </c>
+      <c r="H96" t="s">
+        <v>275</v>
+      </c>
+      <c r="I96" t="s">
+        <v>238</v>
+      </c>
+      <c r="J96">
+        <v>4.2</v>
+      </c>
+      <c r="K96">
+        <v>4.2</v>
+      </c>
+      <c r="L96">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>250</v>
+      </c>
+      <c r="C97" t="s">
+        <v>245</v>
+      </c>
+      <c r="D97" t="s">
+        <v>249</v>
+      </c>
+      <c r="E97">
+        <v>24</v>
+      </c>
+      <c r="F97" t="s">
+        <v>127</v>
+      </c>
+      <c r="G97">
+        <v>1998</v>
+      </c>
+      <c r="H97" t="s">
+        <v>25</v>
+      </c>
+      <c r="I97" t="s">
+        <v>245</v>
+      </c>
+      <c r="J97">
+        <v>4.3</v>
+      </c>
+      <c r="K97">
+        <v>4.3</v>
+      </c>
+      <c r="L97">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>252</v>
+      </c>
+      <c r="C98" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>251</v>
+      </c>
+      <c r="E98">
+        <v>24</v>
+      </c>
+      <c r="F98" t="s">
+        <v>127</v>
+      </c>
+      <c r="G98">
+        <v>1998</v>
+      </c>
+      <c r="H98" t="s">
+        <v>276</v>
+      </c>
+      <c r="I98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J98">
+        <v>4.3</v>
+      </c>
+      <c r="K98">
+        <v>4.3</v>
+      </c>
+      <c r="L98">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="C99" t="s">
+        <v>240</v>
+      </c>
+      <c r="D99" t="s">
+        <v>246</v>
+      </c>
+      <c r="E99">
+        <v>24</v>
+      </c>
+      <c r="F99" t="s">
+        <v>127</v>
+      </c>
+      <c r="G99">
+        <v>1998</v>
+      </c>
+      <c r="H99" t="s">
+        <v>277</v>
+      </c>
+      <c r="I99" t="s">
+        <v>240</v>
+      </c>
+      <c r="J99">
+        <v>4.3</v>
+      </c>
+      <c r="K99">
+        <v>4.3</v>
+      </c>
+      <c r="L99">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="C100" t="s">
+        <v>254</v>
+      </c>
+      <c r="D100" t="s">
+        <v>247</v>
+      </c>
+      <c r="E100">
+        <v>24</v>
+      </c>
+      <c r="F100" t="s">
+        <v>127</v>
+      </c>
+      <c r="G100">
+        <v>1998</v>
+      </c>
+      <c r="H100" t="s">
+        <v>278</v>
+      </c>
+      <c r="I100" t="s">
+        <v>254</v>
+      </c>
+      <c r="J100">
+        <v>4.5</v>
+      </c>
+      <c r="K100">
+        <v>4.5</v>
+      </c>
+      <c r="L100">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="C101" t="s">
+        <v>256</v>
+      </c>
+      <c r="D101" t="s">
+        <v>248</v>
+      </c>
+      <c r="E101">
+        <v>24</v>
+      </c>
+      <c r="F101" t="s">
+        <v>127</v>
+      </c>
+      <c r="G101">
+        <v>1998</v>
+      </c>
+      <c r="H101" t="s">
+        <v>279</v>
+      </c>
+      <c r="I101" t="s">
+        <v>256</v>
+      </c>
+      <c r="J101">
+        <v>4.5</v>
+      </c>
+      <c r="K101">
+        <v>4.5</v>
+      </c>
+      <c r="L101">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="C102" t="s">
+        <v>258</v>
+      </c>
+      <c r="D102" t="s">
+        <v>259</v>
+      </c>
+      <c r="E102">
+        <v>24</v>
+      </c>
+      <c r="F102" t="s">
+        <v>127</v>
+      </c>
+      <c r="G102">
+        <v>1998</v>
+      </c>
+      <c r="H102" t="s">
+        <v>280</v>
+      </c>
+      <c r="I102" t="s">
+        <v>258</v>
+      </c>
+      <c r="J102">
+        <v>4.7</v>
+      </c>
+      <c r="K102">
+        <v>4.7</v>
+      </c>
+      <c r="L102">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="C103" t="s">
+        <v>260</v>
+      </c>
+      <c r="D103" t="s">
+        <v>259</v>
+      </c>
+      <c r="E103">
+        <v>24</v>
+      </c>
+      <c r="F103" t="s">
+        <v>127</v>
+      </c>
+      <c r="G103">
+        <v>1998</v>
+      </c>
+      <c r="H103" t="s">
+        <v>281</v>
+      </c>
+      <c r="I103" t="s">
+        <v>241</v>
+      </c>
+      <c r="J103">
+        <v>4</v>
+      </c>
+      <c r="K103">
+        <v>4</v>
+      </c>
+      <c r="L103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>130</v>
+        <v>265</v>
+      </c>
+      <c r="C104" t="s">
+        <v>261</v>
+      </c>
+      <c r="D104" t="s">
+        <v>262</v>
+      </c>
+      <c r="E104">
+        <v>24</v>
+      </c>
+      <c r="F104" t="s">
+        <v>127</v>
+      </c>
+      <c r="G104">
+        <v>1998</v>
+      </c>
+      <c r="H104" t="s">
+        <v>280</v>
+      </c>
+      <c r="I104" t="s">
+        <v>261</v>
+      </c>
+      <c r="J104">
+        <v>4.8</v>
+      </c>
+      <c r="K104">
+        <v>4.8</v>
+      </c>
+      <c r="L104">
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>

--- a/Base De Datos.xlsx
+++ b/Base De Datos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="318">
   <si>
     <t>Estudiantes</t>
   </si>
@@ -875,6 +875,111 @@
   </si>
   <si>
     <t xml:space="preserve">Francisco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enciso </t>
+  </si>
+  <si>
+    <t>Villa Hermosa</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Calle</t>
+  </si>
+  <si>
+    <t>Artistica</t>
+  </si>
+  <si>
+    <t>Sociales</t>
+  </si>
+  <si>
+    <t>Matematicas</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>Ingles</t>
+  </si>
+  <si>
+    <t>2,5 Millones</t>
+  </si>
+  <si>
+    <t>2,6 Millones</t>
+  </si>
+  <si>
+    <t>3,4 Millones</t>
+  </si>
+  <si>
+    <t>3,2 Millones</t>
+  </si>
+  <si>
+    <t>1,9 Millones</t>
+  </si>
+  <si>
+    <t>2,2 Millones</t>
+  </si>
+  <si>
+    <t>2,3 Millones</t>
+  </si>
+  <si>
+    <t>2,7 Millones</t>
+  </si>
+  <si>
+    <t>2,8 Millones</t>
+  </si>
+  <si>
+    <t>3,1 Millones</t>
+  </si>
+  <si>
+    <t>4,2 Millones</t>
+  </si>
+  <si>
+    <t>4,3 Millones</t>
+  </si>
+  <si>
+    <t>5,2 Millones</t>
+  </si>
+  <si>
+    <t>3,6 Millones</t>
+  </si>
+  <si>
+    <t>3,7 Millones</t>
+  </si>
+  <si>
+    <t>3,9 Millones</t>
+  </si>
+  <si>
+    <t>Numero #</t>
+  </si>
+  <si>
+    <t>Numero  #</t>
+  </si>
+  <si>
+    <t>Aseo</t>
+  </si>
+  <si>
+    <t>Cafeteria</t>
+  </si>
+  <si>
+    <t>2,1 Millones</t>
+  </si>
+  <si>
+    <t>1,6 Millones</t>
+  </si>
+  <si>
+    <t>1,5 Millones</t>
+  </si>
+  <si>
+    <t>3,5 Millones</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -1192,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O104"/>
+  <dimension ref="A2:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="B11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,14 +1312,19 @@
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>317</v>
+      </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1252,13 +1362,19 @@
         <v>12</v>
       </c>
       <c r="N3" t="s">
+        <v>309</v>
+      </c>
+      <c r="O3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -1291,10 +1407,25 @@
         <v>4.5</v>
       </c>
       <c r="L4">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>286</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>283</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -1327,10 +1458,25 @@
         <v>4.5</v>
       </c>
       <c r="L5">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>287</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>284</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1362,10 +1508,25 @@
         <v>4.7</v>
       </c>
       <c r="L6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M6" t="s">
+        <v>286</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>285</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -1397,10 +1558,25 @@
         <v>4</v>
       </c>
       <c r="L7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M7" t="s">
+        <v>287</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -1432,10 +1608,25 @@
         <v>4.8</v>
       </c>
       <c r="L8">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>286</v>
+      </c>
+      <c r="N8">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>284</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
@@ -1467,10 +1658,25 @@
         <v>4.8</v>
       </c>
       <c r="L9">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+        <v>4.2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>287</v>
+      </c>
+      <c r="N9">
+        <v>11</v>
+      </c>
+      <c r="O9" t="s">
+        <v>284</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -1502,10 +1708,25 @@
         <v>4.8</v>
       </c>
       <c r="L10">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+        <v>4.2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>286</v>
+      </c>
+      <c r="N10">
+        <v>13</v>
+      </c>
+      <c r="O10" t="s">
+        <v>284</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -1537,10 +1758,25 @@
         <v>4.8</v>
       </c>
       <c r="L11">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+        <v>4.3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>287</v>
+      </c>
+      <c r="N11">
+        <v>15</v>
+      </c>
+      <c r="O11" t="s">
+        <v>283</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
       <c r="B12" t="s">
         <v>42</v>
       </c>
@@ -1572,10 +1808,25 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="L12">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+        <v>4.3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>286</v>
+      </c>
+      <c r="N12">
+        <v>17</v>
+      </c>
+      <c r="O12" t="s">
+        <v>285</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
@@ -1607,10 +1858,25 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L13">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+        <v>4.3</v>
+      </c>
+      <c r="M13" t="s">
+        <v>287</v>
+      </c>
+      <c r="N13">
+        <v>19</v>
+      </c>
+      <c r="O13" t="s">
+        <v>285</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
@@ -1644,8 +1910,23 @@
       <c r="L14">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>286</v>
+      </c>
+      <c r="N14">
+        <v>21</v>
+      </c>
+      <c r="O14" t="s">
+        <v>285</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
       <c r="B15" t="s">
         <v>49</v>
       </c>
@@ -1677,10 +1958,25 @@
         <v>4.2</v>
       </c>
       <c r="L15">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="M15" t="s">
+        <v>287</v>
+      </c>
+      <c r="N15">
+        <v>23</v>
+      </c>
+      <c r="O15" t="s">
+        <v>285</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
       <c r="B16" t="s">
         <v>52</v>
       </c>
@@ -1712,10 +2008,25 @@
         <v>4.2</v>
       </c>
       <c r="L16">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.7</v>
+      </c>
+      <c r="M16" t="s">
+        <v>286</v>
+      </c>
+      <c r="N16">
+        <v>25</v>
+      </c>
+      <c r="O16" t="s">
+        <v>285</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
       <c r="B17" t="s">
         <v>55</v>
       </c>
@@ -1747,10 +2058,25 @@
         <v>4.3</v>
       </c>
       <c r="L17">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="M17" t="s">
+        <v>287</v>
+      </c>
+      <c r="N17">
+        <v>27</v>
+      </c>
+      <c r="O17" t="s">
+        <v>285</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
       <c r="B18" t="s">
         <v>55</v>
       </c>
@@ -1782,10 +2108,25 @@
         <v>4.3</v>
       </c>
       <c r="L18">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="M18" t="s">
+        <v>286</v>
+      </c>
+      <c r="N18">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
+        <v>285</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
       <c r="B19" t="s">
         <v>55</v>
       </c>
@@ -1817,10 +2158,25 @@
         <v>4.3</v>
       </c>
       <c r="L19">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>287</v>
+      </c>
+      <c r="N19">
+        <v>31</v>
+      </c>
+      <c r="O19" t="s">
+        <v>283</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
       <c r="B20" t="s">
         <v>55</v>
       </c>
@@ -1852,10 +2208,25 @@
         <v>4.5</v>
       </c>
       <c r="L20">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="M20" t="s">
+        <v>286</v>
+      </c>
+      <c r="N20">
+        <v>33</v>
+      </c>
+      <c r="O20" t="s">
+        <v>284</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
       <c r="B21" t="s">
         <v>55</v>
       </c>
@@ -1887,10 +2258,25 @@
         <v>4.5</v>
       </c>
       <c r="L21">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="M21" t="s">
+        <v>287</v>
+      </c>
+      <c r="N21">
+        <v>35</v>
+      </c>
+      <c r="O21" t="s">
+        <v>285</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
       <c r="B22" t="s">
         <v>64</v>
       </c>
@@ -1922,10 +2308,25 @@
         <v>4.7</v>
       </c>
       <c r="L22">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M22" t="s">
+        <v>286</v>
+      </c>
+      <c r="N22">
+        <v>37</v>
+      </c>
+      <c r="O22" t="s">
+        <v>283</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
       <c r="B23" t="s">
         <v>67</v>
       </c>
@@ -1957,10 +2358,25 @@
         <v>4</v>
       </c>
       <c r="L23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="M23" t="s">
+        <v>287</v>
+      </c>
+      <c r="N23">
+        <v>39</v>
+      </c>
+      <c r="O23" t="s">
+        <v>285</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
       <c r="B24" t="s">
         <v>64</v>
       </c>
@@ -1992,10 +2408,25 @@
         <v>4.8</v>
       </c>
       <c r="L24">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M24" t="s">
+        <v>286</v>
+      </c>
+      <c r="N24">
+        <v>41</v>
+      </c>
+      <c r="O24" t="s">
+        <v>285</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
       <c r="B25" t="s">
         <v>69</v>
       </c>
@@ -2027,10 +2458,25 @@
         <v>4.8</v>
       </c>
       <c r="L25">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M25" t="s">
+        <v>287</v>
+      </c>
+      <c r="N25">
+        <v>42</v>
+      </c>
+      <c r="O25" t="s">
+        <v>283</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
       <c r="B26" t="s">
         <v>72</v>
       </c>
@@ -2062,10 +2508,25 @@
         <v>4.8</v>
       </c>
       <c r="L26">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="M26" t="s">
+        <v>286</v>
+      </c>
+      <c r="N26">
+        <v>43</v>
+      </c>
+      <c r="O26" t="s">
+        <v>285</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
       <c r="B27" t="s">
         <v>75</v>
       </c>
@@ -2097,10 +2558,25 @@
         <v>4.8</v>
       </c>
       <c r="L27">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.2</v>
+      </c>
+      <c r="M27" t="s">
+        <v>287</v>
+      </c>
+      <c r="N27">
+        <v>44</v>
+      </c>
+      <c r="O27" t="s">
+        <v>285</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
       <c r="B28" t="s">
         <v>76</v>
       </c>
@@ -2134,8 +2610,23 @@
       <c r="L28">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>286</v>
+      </c>
+      <c r="N28">
+        <v>45</v>
+      </c>
+      <c r="O28" t="s">
+        <v>283</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
       <c r="B29" t="s">
         <v>83</v>
       </c>
@@ -2164,13 +2655,28 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="K29">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="L29">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>287</v>
+      </c>
+      <c r="N29">
+        <v>47</v>
+      </c>
+      <c r="O29" t="s">
+        <v>285</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
       <c r="B30" t="s">
         <v>85</v>
       </c>
@@ -2199,13 +2705,28 @@
         <v>4.5</v>
       </c>
       <c r="K30">
-        <v>4.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L30">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>286</v>
+      </c>
+      <c r="N30">
+        <v>49</v>
+      </c>
+      <c r="O30" t="s">
+        <v>283</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -2234,13 +2755,28 @@
         <v>4.2</v>
       </c>
       <c r="K31">
-        <v>4.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L31">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>287</v>
+      </c>
+      <c r="N31">
+        <v>51</v>
+      </c>
+      <c r="O31" t="s">
+        <v>284</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
       <c r="B32" t="s">
         <v>96</v>
       </c>
@@ -2269,13 +2805,28 @@
         <v>4.2</v>
       </c>
       <c r="K32">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L32">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>286</v>
+      </c>
+      <c r="N32">
+        <v>53</v>
+      </c>
+      <c r="O32" t="s">
+        <v>285</v>
+      </c>
+      <c r="P32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
       <c r="B33" t="s">
         <v>97</v>
       </c>
@@ -2304,13 +2855,28 @@
         <v>4.3</v>
       </c>
       <c r="K33">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L33">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>287</v>
+      </c>
+      <c r="N33">
+        <v>54</v>
+      </c>
+      <c r="O33" t="s">
+        <v>285</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
       <c r="B34" t="s">
         <v>99</v>
       </c>
@@ -2339,13 +2905,28 @@
         <v>4.3</v>
       </c>
       <c r="K34">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="L34">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>286</v>
+      </c>
+      <c r="N34">
+        <v>55</v>
+      </c>
+      <c r="O34" t="s">
+        <v>285</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
       <c r="B35" t="s">
         <v>104</v>
       </c>
@@ -2374,13 +2955,28 @@
         <v>4.3</v>
       </c>
       <c r="K35">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="L35">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>287</v>
+      </c>
+      <c r="N35">
+        <v>56</v>
+      </c>
+      <c r="O35" t="s">
+        <v>283</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
       <c r="B36" t="s">
         <v>108</v>
       </c>
@@ -2409,13 +3005,28 @@
         <v>4.5</v>
       </c>
       <c r="K36">
-        <v>4.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L36">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>286</v>
+      </c>
+      <c r="N36">
+        <v>58</v>
+      </c>
+      <c r="O36" t="s">
+        <v>285</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
       <c r="B37" t="s">
         <v>109</v>
       </c>
@@ -2444,13 +3055,28 @@
         <v>4.5</v>
       </c>
       <c r="K37">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L37">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>287</v>
+      </c>
+      <c r="N37">
+        <v>60</v>
+      </c>
+      <c r="O37" t="s">
+        <v>283</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
       <c r="B38" t="s">
         <v>110</v>
       </c>
@@ -2479,13 +3105,28 @@
         <v>4.7</v>
       </c>
       <c r="K38">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L38">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>286</v>
+      </c>
+      <c r="N38">
+        <v>61</v>
+      </c>
+      <c r="O38" t="s">
+        <v>285</v>
+      </c>
+      <c r="P38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
       <c r="B39" t="s">
         <v>112</v>
       </c>
@@ -2514,13 +3155,28 @@
         <v>4</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="M39" t="s">
+        <v>287</v>
+      </c>
+      <c r="N39">
+        <v>63</v>
+      </c>
+      <c r="O39" t="s">
+        <v>283</v>
+      </c>
+      <c r="P39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
       <c r="B40" t="s">
         <v>101</v>
       </c>
@@ -2549,13 +3205,28 @@
         <v>4.8</v>
       </c>
       <c r="K40">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L40">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>286</v>
+      </c>
+      <c r="N40">
+        <v>65</v>
+      </c>
+      <c r="O40" t="s">
+        <v>285</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
       <c r="B41" t="s">
         <v>116</v>
       </c>
@@ -2584,13 +3255,28 @@
         <v>4.8</v>
       </c>
       <c r="K41">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L41">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M41" t="s">
+        <v>287</v>
+      </c>
+      <c r="N41">
+        <v>67</v>
+      </c>
+      <c r="O41" t="s">
+        <v>285</v>
+      </c>
+      <c r="P41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
       <c r="B42" t="s">
         <v>117</v>
       </c>
@@ -2619,13 +3305,28 @@
         <v>4.8</v>
       </c>
       <c r="K42">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L42">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M42" t="s">
+        <v>286</v>
+      </c>
+      <c r="N42">
+        <v>69</v>
+      </c>
+      <c r="O42" t="s">
+        <v>283</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
       <c r="B43" t="s">
         <v>118</v>
       </c>
@@ -2654,13 +3355,28 @@
         <v>4.8</v>
       </c>
       <c r="K43">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L43">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="M43" t="s">
+        <v>287</v>
+      </c>
+      <c r="N43">
+        <v>71</v>
+      </c>
+      <c r="O43" t="s">
+        <v>285</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
       <c r="B44" t="s">
         <v>119</v>
       </c>
@@ -2689,13 +3405,28 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="K44">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="L44">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.2</v>
+      </c>
+      <c r="M44" t="s">
+        <v>286</v>
+      </c>
+      <c r="N44">
+        <v>82</v>
+      </c>
+      <c r="O44" t="s">
+        <v>285</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
       <c r="B45" t="s">
         <v>120</v>
       </c>
@@ -2724,13 +3455,28 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="K45">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="L45">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.2</v>
+      </c>
+      <c r="M45" t="s">
+        <v>287</v>
+      </c>
+      <c r="N45">
+        <v>91</v>
+      </c>
+      <c r="O45" t="s">
+        <v>285</v>
+      </c>
+      <c r="P45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
       <c r="B46" t="s">
         <v>121</v>
       </c>
@@ -2759,13 +3505,28 @@
         <v>4.5</v>
       </c>
       <c r="K46">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L46">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.3</v>
+      </c>
+      <c r="M46" t="s">
+        <v>286</v>
+      </c>
+      <c r="N46">
+        <v>93</v>
+      </c>
+      <c r="O46" t="s">
+        <v>285</v>
+      </c>
+      <c r="P46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
       <c r="B47" t="s">
         <v>122</v>
       </c>
@@ -2794,13 +3555,28 @@
         <v>4.2</v>
       </c>
       <c r="K47">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L47">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.3</v>
+      </c>
+      <c r="M47" t="s">
+        <v>287</v>
+      </c>
+      <c r="N47">
+        <v>95</v>
+      </c>
+      <c r="O47" t="s">
+        <v>285</v>
+      </c>
+      <c r="P47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
       <c r="B48" t="s">
         <v>124</v>
       </c>
@@ -2829,13 +3605,28 @@
         <v>4.2</v>
       </c>
       <c r="K48">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="L48">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.3</v>
+      </c>
+      <c r="M48" t="s">
+        <v>286</v>
+      </c>
+      <c r="N48">
+        <v>97</v>
+      </c>
+      <c r="O48" t="s">
+        <v>284</v>
+      </c>
+      <c r="P48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
       <c r="B49" t="s">
         <v>125</v>
       </c>
@@ -2864,13 +3655,28 @@
         <v>4.3</v>
       </c>
       <c r="K49">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="L49">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="M49" t="s">
+        <v>287</v>
+      </c>
+      <c r="N49">
+        <v>101</v>
+      </c>
+      <c r="O49" t="s">
+        <v>284</v>
+      </c>
+      <c r="P49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
       <c r="B50" t="s">
         <v>138</v>
       </c>
@@ -2899,13 +3705,28 @@
         <v>4.3</v>
       </c>
       <c r="K50">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="L50">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="M50" t="s">
+        <v>286</v>
+      </c>
+      <c r="N50">
+        <v>103</v>
+      </c>
+      <c r="O50" t="s">
+        <v>284</v>
+      </c>
+      <c r="P50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>48</v>
+      </c>
       <c r="B51" t="s">
         <v>140</v>
       </c>
@@ -2934,13 +3755,28 @@
         <v>4.3</v>
       </c>
       <c r="K51">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="L51">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.7</v>
+      </c>
+      <c r="M51" t="s">
+        <v>287</v>
+      </c>
+      <c r="N51">
+        <v>105</v>
+      </c>
+      <c r="O51" t="s">
+        <v>284</v>
+      </c>
+      <c r="P51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>49</v>
+      </c>
       <c r="B52" t="s">
         <v>145</v>
       </c>
@@ -2969,13 +3805,28 @@
         <v>4.5</v>
       </c>
       <c r="K52">
-        <v>4.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L52">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="M52" t="s">
+        <v>286</v>
+      </c>
+      <c r="N52">
+        <v>106</v>
+      </c>
+      <c r="O52" t="s">
+        <v>283</v>
+      </c>
+      <c r="P52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>50</v>
+      </c>
       <c r="B53" t="s">
         <v>146</v>
       </c>
@@ -3004,13 +3855,28 @@
         <v>4.5</v>
       </c>
       <c r="K53">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L53">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="M53" t="s">
+        <v>287</v>
+      </c>
+      <c r="N53">
+        <v>107</v>
+      </c>
+      <c r="O53" t="s">
+        <v>283</v>
+      </c>
+      <c r="P53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>51</v>
+      </c>
       <c r="B54" t="s">
         <v>148</v>
       </c>
@@ -3039,13 +3905,28 @@
         <v>4.7</v>
       </c>
       <c r="K54">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L54">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="M54" t="s">
+        <v>286</v>
+      </c>
+      <c r="N54">
+        <v>108</v>
+      </c>
+      <c r="O54" t="s">
+        <v>285</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>52</v>
+      </c>
       <c r="B55" t="s">
         <v>149</v>
       </c>
@@ -3074,13 +3955,28 @@
         <v>4</v>
       </c>
       <c r="K55">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="M55" t="s">
+        <v>287</v>
+      </c>
+      <c r="N55">
+        <v>109</v>
+      </c>
+      <c r="O55" t="s">
+        <v>283</v>
+      </c>
+      <c r="P55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>53</v>
+      </c>
       <c r="B56" t="s">
         <v>151</v>
       </c>
@@ -3109,13 +4005,28 @@
         <v>4.8</v>
       </c>
       <c r="K56">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L56">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M56" t="s">
+        <v>286</v>
+      </c>
+      <c r="N56">
+        <v>110</v>
+      </c>
+      <c r="O56" t="s">
+        <v>283</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>54</v>
+      </c>
       <c r="B57" t="s">
         <v>152</v>
       </c>
@@ -3144,13 +4055,28 @@
         <v>4.8</v>
       </c>
       <c r="K57">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L57">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M57" t="s">
+        <v>287</v>
+      </c>
+      <c r="N57">
+        <v>111</v>
+      </c>
+      <c r="O57" t="s">
+        <v>283</v>
+      </c>
+      <c r="P57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>55</v>
+      </c>
       <c r="B58" t="s">
         <v>154</v>
       </c>
@@ -3184,8 +4110,23 @@
       <c r="L58">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M58" t="s">
+        <v>286</v>
+      </c>
+      <c r="N58">
+        <v>113</v>
+      </c>
+      <c r="O58" t="s">
+        <v>283</v>
+      </c>
+      <c r="P58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>56</v>
+      </c>
       <c r="B59" t="s">
         <v>156</v>
       </c>
@@ -3217,10 +4158,25 @@
         <v>4.8</v>
       </c>
       <c r="L59">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M59" t="s">
+        <v>287</v>
+      </c>
+      <c r="N59">
+        <v>115</v>
+      </c>
+      <c r="O59" t="s">
+        <v>285</v>
+      </c>
+      <c r="P59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>57</v>
+      </c>
       <c r="B60" t="s">
         <v>159</v>
       </c>
@@ -3252,10 +4208,25 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="L60">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M60" t="s">
+        <v>286</v>
+      </c>
+      <c r="N60">
+        <v>117</v>
+      </c>
+      <c r="O60" t="s">
+        <v>283</v>
+      </c>
+      <c r="P60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>58</v>
+      </c>
       <c r="B61" t="s">
         <v>164</v>
       </c>
@@ -3287,10 +4258,25 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L61">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="M61" t="s">
+        <v>287</v>
+      </c>
+      <c r="N61">
+        <v>119</v>
+      </c>
+      <c r="O61" t="s">
+        <v>283</v>
+      </c>
+      <c r="P61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>59</v>
+      </c>
       <c r="B62" t="s">
         <v>136</v>
       </c>
@@ -3322,10 +4308,25 @@
         <v>4.5</v>
       </c>
       <c r="L62">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.2</v>
+      </c>
+      <c r="M62" t="s">
+        <v>286</v>
+      </c>
+      <c r="N62">
+        <v>121</v>
+      </c>
+      <c r="O62" t="s">
+        <v>283</v>
+      </c>
+      <c r="P62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>60</v>
+      </c>
       <c r="B63" t="s">
         <v>166</v>
       </c>
@@ -3359,8 +4360,23 @@
       <c r="L63">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M63" t="s">
+        <v>287</v>
+      </c>
+      <c r="N63">
+        <v>123</v>
+      </c>
+      <c r="O63" t="s">
+        <v>284</v>
+      </c>
+      <c r="P63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>61</v>
+      </c>
       <c r="B64" t="s">
         <v>167</v>
       </c>
@@ -3394,8 +4410,23 @@
       <c r="L64">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M64" t="s">
+        <v>286</v>
+      </c>
+      <c r="N64">
+        <v>125</v>
+      </c>
+      <c r="O64" t="s">
+        <v>285</v>
+      </c>
+      <c r="P64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>62</v>
+      </c>
       <c r="B65" t="s">
         <v>168</v>
       </c>
@@ -3429,8 +4460,23 @@
       <c r="L65">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M65" t="s">
+        <v>287</v>
+      </c>
+      <c r="N65">
+        <v>129</v>
+      </c>
+      <c r="O65" t="s">
+        <v>283</v>
+      </c>
+      <c r="P65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>63</v>
+      </c>
       <c r="B66" t="s">
         <v>173</v>
       </c>
@@ -3464,8 +4510,23 @@
       <c r="L66">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M66" t="s">
+        <v>286</v>
+      </c>
+      <c r="N66">
+        <v>132</v>
+      </c>
+      <c r="O66" t="s">
+        <v>283</v>
+      </c>
+      <c r="P66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>64</v>
+      </c>
       <c r="B67" t="s">
         <v>178</v>
       </c>
@@ -3499,8 +4560,23 @@
       <c r="L67">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M67" t="s">
+        <v>287</v>
+      </c>
+      <c r="N67">
+        <v>133</v>
+      </c>
+      <c r="O67" t="s">
+        <v>285</v>
+      </c>
+      <c r="P67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>65</v>
+      </c>
       <c r="B68" t="s">
         <v>184</v>
       </c>
@@ -3534,8 +4610,23 @@
       <c r="L68">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M68" t="s">
+        <v>286</v>
+      </c>
+      <c r="N68">
+        <v>134</v>
+      </c>
+      <c r="O68" t="s">
+        <v>283</v>
+      </c>
+      <c r="P68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>66</v>
+      </c>
       <c r="B69" t="s">
         <v>187</v>
       </c>
@@ -3569,8 +4660,23 @@
       <c r="L69">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M69" t="s">
+        <v>287</v>
+      </c>
+      <c r="N69">
+        <v>135</v>
+      </c>
+      <c r="O69" t="s">
+        <v>285</v>
+      </c>
+      <c r="P69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>67</v>
+      </c>
       <c r="B70" t="s">
         <v>152</v>
       </c>
@@ -3604,8 +4710,23 @@
       <c r="L70">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M70" t="s">
+        <v>286</v>
+      </c>
+      <c r="N70">
+        <v>136</v>
+      </c>
+      <c r="O70" t="s">
+        <v>283</v>
+      </c>
+      <c r="P70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>68</v>
+      </c>
       <c r="B71" t="s">
         <v>190</v>
       </c>
@@ -3639,8 +4760,23 @@
       <c r="L71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M71" t="s">
+        <v>287</v>
+      </c>
+      <c r="N71">
+        <v>138</v>
+      </c>
+      <c r="O71" t="s">
+        <v>284</v>
+      </c>
+      <c r="P71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>69</v>
+      </c>
       <c r="B72" t="s">
         <v>192</v>
       </c>
@@ -3674,8 +4810,23 @@
       <c r="L72">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M72" t="s">
+        <v>286</v>
+      </c>
+      <c r="N72">
+        <v>139</v>
+      </c>
+      <c r="O72" t="s">
+        <v>284</v>
+      </c>
+      <c r="P72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>70</v>
+      </c>
       <c r="B73" t="s">
         <v>193</v>
       </c>
@@ -3709,8 +4860,23 @@
       <c r="L73">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M73" t="s">
+        <v>287</v>
+      </c>
+      <c r="N73">
+        <v>142</v>
+      </c>
+      <c r="O73" t="s">
+        <v>284</v>
+      </c>
+      <c r="P73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>71</v>
+      </c>
       <c r="B74" t="s">
         <v>194</v>
       </c>
@@ -3739,13 +4905,28 @@
         <v>4.8</v>
       </c>
       <c r="K74">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L74">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M74" t="s">
+        <v>286</v>
+      </c>
+      <c r="N74">
+        <v>152</v>
+      </c>
+      <c r="O74" t="s">
+        <v>284</v>
+      </c>
+      <c r="P74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>72</v>
+      </c>
       <c r="B75" t="s">
         <v>196</v>
       </c>
@@ -3774,13 +4955,28 @@
         <v>4.8</v>
       </c>
       <c r="K75">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L75">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M75" t="s">
+        <v>287</v>
+      </c>
+      <c r="N75">
+        <v>192</v>
+      </c>
+      <c r="O75" t="s">
+        <v>283</v>
+      </c>
+      <c r="P75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>73</v>
+      </c>
       <c r="B76" t="s">
         <v>198</v>
       </c>
@@ -3809,13 +5005,28 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="K76">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="L76">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M76" t="s">
+        <v>286</v>
+      </c>
+      <c r="N76">
+        <v>193</v>
+      </c>
+      <c r="O76" t="s">
+        <v>283</v>
+      </c>
+      <c r="P76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>74</v>
+      </c>
       <c r="B77" t="s">
         <v>199</v>
       </c>
@@ -3844,13 +5055,28 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="K77">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="L77">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="M77" t="s">
+        <v>287</v>
+      </c>
+      <c r="N77">
+        <v>194</v>
+      </c>
+      <c r="O77" t="s">
+        <v>283</v>
+      </c>
+      <c r="P77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>75</v>
+      </c>
       <c r="B78" t="s">
         <v>202</v>
       </c>
@@ -3879,13 +5105,28 @@
         <v>4.5</v>
       </c>
       <c r="K78">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L78">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="M78" t="s">
+        <v>286</v>
+      </c>
+      <c r="N78">
+        <v>196</v>
+      </c>
+      <c r="O78" t="s">
+        <v>283</v>
+      </c>
+      <c r="P78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>76</v>
+      </c>
       <c r="B79" t="s">
         <v>204</v>
       </c>
@@ -3914,13 +5155,28 @@
         <v>4.2</v>
       </c>
       <c r="K79">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L79">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M79" t="s">
+        <v>287</v>
+      </c>
+      <c r="N79">
+        <v>197</v>
+      </c>
+      <c r="O79" t="s">
+        <v>285</v>
+      </c>
+      <c r="P79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>77</v>
+      </c>
       <c r="B80" t="s">
         <v>205</v>
       </c>
@@ -3949,13 +5205,28 @@
         <v>4.2</v>
       </c>
       <c r="K80">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L80">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M80" t="s">
+        <v>286</v>
+      </c>
+      <c r="N80">
+        <v>198</v>
+      </c>
+      <c r="O80" t="s">
+        <v>283</v>
+      </c>
+      <c r="P80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>78</v>
+      </c>
       <c r="B81" t="s">
         <v>207</v>
       </c>
@@ -3987,10 +5258,25 @@
         <v>4.3</v>
       </c>
       <c r="L81">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="M81" t="s">
+        <v>287</v>
+      </c>
+      <c r="N81">
+        <v>199</v>
+      </c>
+      <c r="O81" t="s">
+        <v>283</v>
+      </c>
+      <c r="P81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>79</v>
+      </c>
       <c r="B82" t="s">
         <v>210</v>
       </c>
@@ -4019,13 +5305,28 @@
         <v>4.3</v>
       </c>
       <c r="K82">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L82">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.2</v>
+      </c>
+      <c r="M82" t="s">
+        <v>286</v>
+      </c>
+      <c r="N82">
+        <v>201</v>
+      </c>
+      <c r="O82" t="s">
+        <v>285</v>
+      </c>
+      <c r="P82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>80</v>
+      </c>
       <c r="B83" t="s">
         <v>211</v>
       </c>
@@ -4054,13 +5355,28 @@
         <v>4.3</v>
       </c>
       <c r="K83">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L83">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.2</v>
+      </c>
+      <c r="M83" t="s">
+        <v>287</v>
+      </c>
+      <c r="N83">
+        <v>203</v>
+      </c>
+      <c r="O83" t="s">
+        <v>283</v>
+      </c>
+      <c r="P83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>81</v>
+      </c>
       <c r="B84" t="s">
         <v>214</v>
       </c>
@@ -4089,13 +5405,28 @@
         <v>4.5</v>
       </c>
       <c r="K84">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L84">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.3</v>
+      </c>
+      <c r="M84" t="s">
+        <v>286</v>
+      </c>
+      <c r="N84">
+        <v>224</v>
+      </c>
+      <c r="O84" t="s">
+        <v>285</v>
+      </c>
+      <c r="P84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>82</v>
+      </c>
       <c r="B85" t="s">
         <v>220</v>
       </c>
@@ -4124,13 +5455,28 @@
         <v>4.5</v>
       </c>
       <c r="K85">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L85">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.3</v>
+      </c>
+      <c r="M85" t="s">
+        <v>287</v>
+      </c>
+      <c r="N85">
+        <v>225</v>
+      </c>
+      <c r="O85" t="s">
+        <v>283</v>
+      </c>
+      <c r="P85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>83</v>
+      </c>
       <c r="B86" t="s">
         <v>216</v>
       </c>
@@ -4159,13 +5505,28 @@
         <v>4.7</v>
       </c>
       <c r="K86">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L86">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.3</v>
+      </c>
+      <c r="M86" t="s">
+        <v>286</v>
+      </c>
+      <c r="N86">
+        <v>227</v>
+      </c>
+      <c r="O86" t="s">
+        <v>285</v>
+      </c>
+      <c r="P86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>84</v>
+      </c>
       <c r="B87" t="s">
         <v>224</v>
       </c>
@@ -4194,13 +5555,28 @@
         <v>4</v>
       </c>
       <c r="K87">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="L87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="M87" t="s">
+        <v>287</v>
+      </c>
+      <c r="N87">
+        <v>229</v>
+      </c>
+      <c r="O87" t="s">
+        <v>283</v>
+      </c>
+      <c r="P87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>85</v>
+      </c>
       <c r="B88" t="s">
         <v>225</v>
       </c>
@@ -4232,10 +5608,25 @@
         <v>4.8</v>
       </c>
       <c r="L88">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="M88" t="s">
+        <v>286</v>
+      </c>
+      <c r="N88">
+        <v>231</v>
+      </c>
+      <c r="O88" t="s">
+        <v>283</v>
+      </c>
+      <c r="P88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>86</v>
+      </c>
       <c r="B89" t="s">
         <v>213</v>
       </c>
@@ -4267,10 +5658,25 @@
         <v>4.8</v>
       </c>
       <c r="L89">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.7</v>
+      </c>
+      <c r="M89" t="s">
+        <v>287</v>
+      </c>
+      <c r="N89">
+        <v>233</v>
+      </c>
+      <c r="O89" t="s">
+        <v>285</v>
+      </c>
+      <c r="P89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>87</v>
+      </c>
       <c r="B90" t="s">
         <v>228</v>
       </c>
@@ -4299,13 +5705,28 @@
         <v>4.8</v>
       </c>
       <c r="K90">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L90">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="M90" t="s">
+        <v>286</v>
+      </c>
+      <c r="N90">
+        <v>235</v>
+      </c>
+      <c r="O90" t="s">
+        <v>283</v>
+      </c>
+      <c r="P90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>88</v>
+      </c>
       <c r="B91" t="s">
         <v>202</v>
       </c>
@@ -4339,8 +5760,23 @@
       <c r="L91">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M91" t="s">
+        <v>287</v>
+      </c>
+      <c r="N91">
+        <v>236</v>
+      </c>
+      <c r="O91" t="s">
+        <v>283</v>
+      </c>
+      <c r="P91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>89</v>
+      </c>
       <c r="B92" t="s">
         <v>233</v>
       </c>
@@ -4372,10 +5808,25 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="L92">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="M92" t="s">
+        <v>286</v>
+      </c>
+      <c r="N92">
+        <v>237</v>
+      </c>
+      <c r="O92" t="s">
+        <v>283</v>
+      </c>
+      <c r="P92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>90</v>
+      </c>
       <c r="B93" t="s">
         <v>236</v>
       </c>
@@ -4407,10 +5858,25 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L93">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="M93" t="s">
+        <v>287</v>
+      </c>
+      <c r="N93">
+        <v>239</v>
+      </c>
+      <c r="O93" t="s">
+        <v>284</v>
+      </c>
+      <c r="P93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>91</v>
+      </c>
       <c r="B94" t="s">
         <v>237</v>
       </c>
@@ -4442,10 +5908,25 @@
         <v>4.5</v>
       </c>
       <c r="L94">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="M94" t="s">
+        <v>286</v>
+      </c>
+      <c r="N94">
+        <v>242</v>
+      </c>
+      <c r="O94" t="s">
+        <v>285</v>
+      </c>
+      <c r="P94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>92</v>
+      </c>
       <c r="B95" t="s">
         <v>225</v>
       </c>
@@ -4477,10 +5958,25 @@
         <v>4.2</v>
       </c>
       <c r="L95">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M95" t="s">
+        <v>287</v>
+      </c>
+      <c r="N95">
+        <v>243</v>
+      </c>
+      <c r="O95" t="s">
+        <v>284</v>
+      </c>
+      <c r="P95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>93</v>
+      </c>
       <c r="B96" t="s">
         <v>244</v>
       </c>
@@ -4512,10 +6008,25 @@
         <v>4.2</v>
       </c>
       <c r="L96">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="M96" t="s">
+        <v>286</v>
+      </c>
+      <c r="N96">
+        <v>244</v>
+      </c>
+      <c r="O96" t="s">
+        <v>284</v>
+      </c>
+      <c r="P96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>94</v>
+      </c>
       <c r="B97" t="s">
         <v>250</v>
       </c>
@@ -4547,10 +6058,25 @@
         <v>4.3</v>
       </c>
       <c r="L97">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M97" t="s">
+        <v>287</v>
+      </c>
+      <c r="N97">
+        <v>245</v>
+      </c>
+      <c r="O97" t="s">
+        <v>284</v>
+      </c>
+      <c r="P97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>95</v>
+      </c>
       <c r="B98" t="s">
         <v>252</v>
       </c>
@@ -4582,10 +6108,25 @@
         <v>4.3</v>
       </c>
       <c r="L98">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M98" t="s">
+        <v>286</v>
+      </c>
+      <c r="N98">
+        <v>246</v>
+      </c>
+      <c r="O98" t="s">
+        <v>284</v>
+      </c>
+      <c r="P98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>96</v>
+      </c>
       <c r="B99" t="s">
         <v>253</v>
       </c>
@@ -4617,10 +6158,25 @@
         <v>4.3</v>
       </c>
       <c r="L99">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="M99" t="s">
+        <v>287</v>
+      </c>
+      <c r="N99">
+        <v>247</v>
+      </c>
+      <c r="O99" t="s">
+        <v>284</v>
+      </c>
+      <c r="P99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>97</v>
+      </c>
       <c r="B100" t="s">
         <v>255</v>
       </c>
@@ -4652,10 +6208,25 @@
         <v>4.5</v>
       </c>
       <c r="L100">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+        <v>4.2</v>
+      </c>
+      <c r="M100" t="s">
+        <v>286</v>
+      </c>
+      <c r="N100">
+        <v>248</v>
+      </c>
+      <c r="O100" t="s">
+        <v>284</v>
+      </c>
+      <c r="P100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>98</v>
+      </c>
       <c r="B101" t="s">
         <v>257</v>
       </c>
@@ -4689,8 +6260,23 @@
       <c r="L101">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M101" t="s">
+        <v>287</v>
+      </c>
+      <c r="N101">
+        <v>249</v>
+      </c>
+      <c r="O101" t="s">
+        <v>284</v>
+      </c>
+      <c r="P101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>99</v>
+      </c>
       <c r="B102" t="s">
         <v>263</v>
       </c>
@@ -4724,8 +6310,23 @@
       <c r="L102">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M102" t="s">
+        <v>286</v>
+      </c>
+      <c r="N102">
+        <v>251</v>
+      </c>
+      <c r="O102" t="s">
+        <v>284</v>
+      </c>
+      <c r="P102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>100</v>
+      </c>
       <c r="B103" t="s">
         <v>264</v>
       </c>
@@ -4759,8 +6360,23 @@
       <c r="L103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M103" t="s">
+        <v>287</v>
+      </c>
+      <c r="N103">
+        <v>255</v>
+      </c>
+      <c r="O103" t="s">
+        <v>284</v>
+      </c>
+      <c r="P103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>101</v>
+      </c>
       <c r="B104" t="s">
         <v>265</v>
       </c>
@@ -4793,6 +6409,18 @@
       </c>
       <c r="L104">
         <v>4.8</v>
+      </c>
+      <c r="M104" t="s">
+        <v>286</v>
+      </c>
+      <c r="N104">
+        <v>256</v>
+      </c>
+      <c r="O104" t="s">
+        <v>285</v>
+      </c>
+      <c r="P104">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4803,20 +6431,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H3"/>
+  <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>317</v>
+      </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4834,6 +6470,555 @@
       </c>
       <c r="H3" t="s">
         <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G4">
+        <v>3114562239</v>
+      </c>
+      <c r="H4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G5">
+        <v>3114562252</v>
+      </c>
+      <c r="H5" t="s">
+        <v>287</v>
+      </c>
+      <c r="I5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G6">
+        <v>3114562259</v>
+      </c>
+      <c r="H6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7">
+        <v>3124555622</v>
+      </c>
+      <c r="H7" t="s">
+        <v>287</v>
+      </c>
+      <c r="I7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G8">
+        <v>3220056489</v>
+      </c>
+      <c r="H8" t="s">
+        <v>286</v>
+      </c>
+      <c r="I8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G9">
+        <v>3132006548</v>
+      </c>
+      <c r="H9" t="s">
+        <v>287</v>
+      </c>
+      <c r="I9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G10">
+        <v>3142226631</v>
+      </c>
+      <c r="H10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I10">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" t="s">
+        <v>300</v>
+      </c>
+      <c r="G11">
+        <v>3332254543</v>
+      </c>
+      <c r="H11" t="s">
+        <v>287</v>
+      </c>
+      <c r="I11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G12">
+        <v>3261223659</v>
+      </c>
+      <c r="H12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" t="s">
+        <v>290</v>
+      </c>
+      <c r="F13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G13">
+        <v>3693662981</v>
+      </c>
+      <c r="H13" t="s">
+        <v>287</v>
+      </c>
+      <c r="I13">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" t="s">
+        <v>303</v>
+      </c>
+      <c r="G14">
+        <v>3705266639</v>
+      </c>
+      <c r="H14" t="s">
+        <v>286</v>
+      </c>
+      <c r="I14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F15" t="s">
+        <v>303</v>
+      </c>
+      <c r="G15">
+        <v>3715522690</v>
+      </c>
+      <c r="H15" t="s">
+        <v>287</v>
+      </c>
+      <c r="I15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G16">
+        <v>3901122447</v>
+      </c>
+      <c r="H16" t="s">
+        <v>286</v>
+      </c>
+      <c r="I16">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E17" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G17">
+        <v>3165552291</v>
+      </c>
+      <c r="H17" t="s">
+        <v>287</v>
+      </c>
+      <c r="I17">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E18" t="s">
+        <v>291</v>
+      </c>
+      <c r="F18" t="s">
+        <v>306</v>
+      </c>
+      <c r="G18">
+        <v>3262222221</v>
+      </c>
+      <c r="H18" t="s">
+        <v>286</v>
+      </c>
+      <c r="I18">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" t="s">
+        <v>291</v>
+      </c>
+      <c r="F19" t="s">
+        <v>307</v>
+      </c>
+      <c r="G19">
+        <v>3967777781</v>
+      </c>
+      <c r="H19" t="s">
+        <v>287</v>
+      </c>
+      <c r="I19">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" t="s">
+        <v>308</v>
+      </c>
+      <c r="G20">
+        <v>3001222234</v>
+      </c>
+      <c r="H20" t="s">
+        <v>286</v>
+      </c>
+      <c r="I20">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" t="s">
+        <v>292</v>
+      </c>
+      <c r="F21" t="s">
+        <v>293</v>
+      </c>
+      <c r="G21">
+        <v>3999991201</v>
+      </c>
+      <c r="H21" t="s">
+        <v>287</v>
+      </c>
+      <c r="I21">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" t="s">
+        <v>259</v>
+      </c>
+      <c r="E22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F22" t="s">
+        <v>294</v>
+      </c>
+      <c r="G22">
+        <v>3114562632</v>
+      </c>
+      <c r="H22" t="s">
+        <v>286</v>
+      </c>
+      <c r="I22">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
+        <v>259</v>
+      </c>
+      <c r="E23" t="s">
+        <v>292</v>
+      </c>
+      <c r="F23" t="s">
+        <v>295</v>
+      </c>
+      <c r="G23">
+        <v>3114564230</v>
+      </c>
+      <c r="H23" t="s">
+        <v>287</v>
+      </c>
+      <c r="I23">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" t="s">
+        <v>292</v>
+      </c>
+      <c r="F24" t="s">
+        <v>296</v>
+      </c>
+      <c r="G24">
+        <v>3114569621</v>
+      </c>
+      <c r="H24" t="s">
+        <v>286</v>
+      </c>
+      <c r="I24">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4843,23 +7028,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H3"/>
+  <dimension ref="B2:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>317</v>
+      </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4877,6 +7067,555 @@
       </c>
       <c r="H3" t="s">
         <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4">
+        <v>3142226632</v>
+      </c>
+      <c r="H4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5">
+        <v>3332254542</v>
+      </c>
+      <c r="H5" t="s">
+        <v>287</v>
+      </c>
+      <c r="I5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G6">
+        <v>3261223652</v>
+      </c>
+      <c r="H6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I6">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7">
+        <v>3693662983</v>
+      </c>
+      <c r="H7" t="s">
+        <v>287</v>
+      </c>
+      <c r="I7">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G8">
+        <v>3705266633</v>
+      </c>
+      <c r="H8" t="s">
+        <v>286</v>
+      </c>
+      <c r="I8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" t="s">
+        <v>315</v>
+      </c>
+      <c r="G9">
+        <v>3715522693</v>
+      </c>
+      <c r="H9" t="s">
+        <v>287</v>
+      </c>
+      <c r="I9">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G10">
+        <v>3901122443</v>
+      </c>
+      <c r="H10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I10">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11">
+        <v>3165552222</v>
+      </c>
+      <c r="H11" t="s">
+        <v>287</v>
+      </c>
+      <c r="I11">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F12" t="s">
+        <v>313</v>
+      </c>
+      <c r="G12">
+        <v>3262222223</v>
+      </c>
+      <c r="H12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I12">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" t="s">
+        <v>311</v>
+      </c>
+      <c r="F13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G13">
+        <v>3967777784</v>
+      </c>
+      <c r="H13" t="s">
+        <v>287</v>
+      </c>
+      <c r="I13">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>311</v>
+      </c>
+      <c r="F14" t="s">
+        <v>313</v>
+      </c>
+      <c r="G14">
+        <v>3001222239</v>
+      </c>
+      <c r="H14" t="s">
+        <v>286</v>
+      </c>
+      <c r="I14">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" t="s">
+        <v>311</v>
+      </c>
+      <c r="F15" t="s">
+        <v>303</v>
+      </c>
+      <c r="G15">
+        <v>3226663320</v>
+      </c>
+      <c r="H15" t="s">
+        <v>287</v>
+      </c>
+      <c r="I15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G16">
+        <v>3330556223</v>
+      </c>
+      <c r="H16" t="s">
+        <v>286</v>
+      </c>
+      <c r="I16">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" t="s">
+        <v>312</v>
+      </c>
+      <c r="F17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17">
+        <v>3022284523</v>
+      </c>
+      <c r="H17" t="s">
+        <v>287</v>
+      </c>
+      <c r="I17">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" t="s">
+        <v>304</v>
+      </c>
+      <c r="G18">
+        <v>3034555623</v>
+      </c>
+      <c r="H18" t="s">
+        <v>286</v>
+      </c>
+      <c r="I18">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" t="s">
+        <v>312</v>
+      </c>
+      <c r="F19" t="s">
+        <v>305</v>
+      </c>
+      <c r="G19">
+        <v>3045656562</v>
+      </c>
+      <c r="H19" t="s">
+        <v>287</v>
+      </c>
+      <c r="I19">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" t="s">
+        <v>306</v>
+      </c>
+      <c r="G20">
+        <v>3555666639</v>
+      </c>
+      <c r="H20" t="s">
+        <v>286</v>
+      </c>
+      <c r="I20">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" t="s">
+        <v>312</v>
+      </c>
+      <c r="F21" t="s">
+        <v>307</v>
+      </c>
+      <c r="G21">
+        <v>3024444452</v>
+      </c>
+      <c r="H21" t="s">
+        <v>287</v>
+      </c>
+      <c r="I21">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>312</v>
+      </c>
+      <c r="F22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G22">
+        <v>3024445552</v>
+      </c>
+      <c r="H22" t="s">
+        <v>286</v>
+      </c>
+      <c r="I22">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>278</v>
+      </c>
+      <c r="D23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" t="s">
+        <v>312</v>
+      </c>
+      <c r="F23" t="s">
+        <v>306</v>
+      </c>
+      <c r="G23">
+        <v>3082222518</v>
+      </c>
+      <c r="H23" t="s">
+        <v>287</v>
+      </c>
+      <c r="I23">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>279</v>
+      </c>
+      <c r="D24" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" t="s">
+        <v>311</v>
+      </c>
+      <c r="F24" t="s">
+        <v>316</v>
+      </c>
+      <c r="G24">
+        <v>3092222241</v>
+      </c>
+      <c r="H24" t="s">
+        <v>286</v>
+      </c>
+      <c r="I24">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
